--- a/report/reliability/comb/Instituto de Computação - IC-Graduação (bacharelado)-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Computação - IC-Graduação (bacharelado)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1016,11 +1016,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,6 +2227,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3395,6 +3395,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3422,14 +3423,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3438,6 +3438,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3453,14 +3454,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3468,6 +3468,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3483,20 +3484,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3512,20 +3513,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3553,14 +3554,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3569,6 +3569,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3584,14 +3585,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3599,6 +3599,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3614,20 +3615,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3643,19 +3644,19 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3683,14 +3684,13 @@
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3699,6 +3699,7 @@
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3714,14 +3715,13 @@
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3729,6 +3729,7 @@
     <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3744,20 +3745,20 @@
     <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3773,14 +3774,13 @@
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4122,31 +4122,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7634652070816025</v>
+        <v>0.7332224590663137</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7642981661772285</v>
+        <v>0.7453243261985573</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9096847333424078</v>
+        <v>0.895960799010318</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.21273523391080515</v>
+        <v>0.19606407413213242</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.242648365442579</v>
+        <v>2.926562694714408</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.05304874801133217</v>
+        <v>0.055307668100812134</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.839430894308943</v>
+        <v>2.319105691056911</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7198548860086796</v>
+        <v>0.6280211533903066</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.17877769155222267</v>
+        <v>0.16733735076849166</v>
       </c>
     </row>
     <row r="7">
@@ -4196,28 +4196,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7457413306635114</v>
+        <v>0.7218474727966462</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7391641866869169</v>
+        <v>0.7390862529295391</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.886971307938275</v>
+        <v>0.8768642380885554</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.20484778933114736</v>
+        <v>0.20478196215264918</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.833829362993541</v>
+        <v>2.832684215484996</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.05712530003684907</v>
+        <v>0.05741574172561973</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.06685743390299909</v>
+        <v>0.08202949711509422</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.17390784483451785</v>
+        <v>0.16384453272674146</v>
       </c>
     </row>
     <row r="12">
@@ -4225,28 +4225,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.753381975941629</v>
+        <v>0.7348881452278353</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7492960751498594</v>
+        <v>0.7514802552709791</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8836875592753137</v>
+        <v>0.8829581744205538</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2136548872300307</v>
+        <v>0.21562056860085935</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.988768826007629</v>
+        <v>3.023825153572291</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.05508574032601017</v>
+        <v>0.05423498269318176</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.06497574877420481</v>
+        <v>0.0812022331527218</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.18807378400768793</v>
+        <v>0.1826923076923077</v>
       </c>
     </row>
     <row r="13">
@@ -4254,28 +4254,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7352748961634614</v>
+        <v>0.7119819966885101</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7319792934508286</v>
+        <v>0.7035591750131537</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8857050608737839</v>
+        <v>0.870008807595836</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.19889622524623576</v>
+        <v>0.1774689009479528</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.7310550101715307</v>
+        <v>2.373354530518432</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.05896752268787871</v>
+        <v>0.06097094133056449</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.06399908569337653</v>
+        <v>0.06435375602876099</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.17083016881024182</v>
+        <v>0.161481658690532</v>
       </c>
     </row>
     <row r="14">
@@ -4283,28 +4283,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7356922341506165</v>
+        <v>0.6812360409973994</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7291683335214891</v>
+        <v>0.7061304237569774</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8774333266151672</v>
+        <v>0.8716196658087109</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.19663054680464925</v>
+        <v>0.1792802659429795</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.6923304169061963</v>
+        <v>2.4028701194063915</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.058186743071835065</v>
+        <v>0.06789826972815936</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.05972384128488455</v>
+        <v>0.06442094562135718</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.17360405459589845</v>
+        <v>0.161481658690532</v>
       </c>
     </row>
     <row r="15">
@@ -4312,28 +4312,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7437346283713369</v>
+        <v>0.6678847505270555</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7517830585648021</v>
+        <v>0.6985322241968263</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8773856671788001</v>
+        <v>0.8677871688521848</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.21589502666535434</v>
+        <v>0.17399459341396634</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.0287338737556317</v>
+        <v>2.317104116139076</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.057413954300759185</v>
+        <v>0.07174407112251945</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.06061736857617104</v>
+        <v>0.06379375958379373</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.21380570102871074</v>
+        <v>0.161481658690532</v>
       </c>
     </row>
     <row r="16">
@@ -4341,25 +4341,25 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.732162485065711</v>
+        <v>0.7361723816340252</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7431252055444418</v>
+        <v>0.7464029939831711</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.872476951563572</v>
+        <v>0.8974722518882547</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.20823135090785566</v>
+        <v>0.21108860688363604</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.8929471539606815</v>
+        <v>2.9432642195059624</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.06041636238017378</v>
+        <v>0.056079051143944986</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.060963267959997645</v>
+        <v>0.07987236888057073</v>
       </c>
       <c r="I16" t="n" s="65">
         <v>0.17360405459589845</v>
@@ -4370,28 +4370,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7669668518873348</v>
+        <v>0.7332648726865358</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7700010299013602</v>
+        <v>0.7408685178810716</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8970169674218702</v>
+        <v>0.8799927825171947</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.23333437364098425</v>
+        <v>0.20629450626545975</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.3478455558784863</v>
+        <v>2.8590448054515027</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.05205193230541029</v>
+        <v>0.053368868899599756</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.06566029927693817</v>
+        <v>0.0801294157431456</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.21380570102871074</v>
+        <v>0.17360405459589845</v>
       </c>
     </row>
     <row r="18">
@@ -4399,28 +4399,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7942470223527492</v>
+        <v>0.7656418307494386</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7957041069498516</v>
+        <v>0.7663277216325766</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.908247736558743</v>
+        <v>0.8936531295134257</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.26149025508494733</v>
+        <v>0.22966478527435055</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.8948610031750888</v>
+        <v>3.2794977948886683</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.046873997999335226</v>
+        <v>0.04729721243996676</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.05374014983402599</v>
+        <v>0.07272311235524767</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.22833735670774402</v>
+        <v>0.1826923076923077</v>
       </c>
     </row>
     <row r="19">
@@ -4428,28 +4428,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7352953144391773</v>
+        <v>0.6950581476420226</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7387297374721525</v>
+        <v>0.7177479573280736</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.902580068232965</v>
+        <v>0.8863930345947738</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.20448119153322486</v>
+        <v>0.18776824639341214</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.82745433913825</v>
+        <v>2.5429327296750257</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.06038964742316674</v>
+        <v>0.06402212841131073</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.06580339659150007</v>
+        <v>0.07808686002126067</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.17083016881024182</v>
+        <v>0.161481658690532</v>
       </c>
     </row>
     <row r="20">
@@ -4457,28 +4457,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7595219764837627</v>
+        <v>0.7299951598405053</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7651734201516269</v>
+        <v>0.7491182470744838</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9131110632314966</v>
+        <v>0.9010378299837847</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.22852827887742283</v>
+        <v>0.2134959258578212</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.2584617152185125</v>
+        <v>2.9859415375533014</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.054989689689665146</v>
+        <v>0.05674985833551564</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.0694268188290126</v>
+        <v>0.08408666203761173</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.18807378400768793</v>
+        <v>0.17360405459589845</v>
       </c>
     </row>
     <row r="21">
@@ -4486,28 +4486,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7222938274091231</v>
+        <v>0.6878027821043022</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7197002015063716</v>
+        <v>0.7002395918406633</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8856963782205828</v>
+        <v>0.8679521443075991</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.18924548589221232</v>
+        <v>0.17516481811314372</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.567608701019923</v>
+        <v>2.3359975926789267</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.062094127807037346</v>
+        <v>0.06331455525608806</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.06493979682070587</v>
+        <v>0.08071600175972046</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.161481658690532</v>
+        <v>0.11572196323938003</v>
       </c>
     </row>
     <row r="22">
@@ -4515,28 +4515,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7271182700794352</v>
+        <v>0.6866802776643528</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7303606887130178</v>
+        <v>0.7045238299628009</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8903275671082131</v>
+        <v>0.8716277247416218</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.19758739571559725</v>
+        <v>0.1781457097393585</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.7086580410958003</v>
+        <v>2.3843676797154374</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.06163598159230025</v>
+        <v>0.06485685284094886</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.06523959147750638</v>
+        <v>0.07958336613565459</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.17360405459589845</v>
+        <v>0.161481658690532</v>
       </c>
     </row>
     <row r="23">
@@ -4586,16 +4586,16 @@
         <v>41.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.5393269404465161</v>
+        <v>0.42729887894380064</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.596101886051736</v>
+        <v>0.4349873320431759</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.5709901747265288</v>
+        <v>0.3932671321243304</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.4584287571790675</v>
+        <v>0.32152795054729794</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.682926829268293</v>
@@ -4612,16 +4612,16 @@
         <v>41.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.4458715714285573</v>
+        <v>0.3079123074415493</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5195905186657083</v>
+        <v>0.33813088646199485</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5006624064489645</v>
+        <v>0.28795489879538905</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.34805051720349345</v>
+        <v>0.18365219568608224</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>4.2926829268292686</v>
@@ -4638,22 +4638,22 @@
         <v>41.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6170279603910516</v>
+        <v>0.7404430859867993</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.647805899274968</v>
+        <v>0.6790635459797935</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6367184204249909</v>
+        <v>0.7125378233418348</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5040867561689187</v>
+        <v>0.7137029541864499</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.5121951219512195</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.362386714914532</v>
+        <v>0.4190581774617469</v>
       </c>
     </row>
     <row r="30">
@@ -4664,22 +4664,22 @@
         <v>41.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6166872316929214</v>
+        <v>0.7283247249916676</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.667488904688682</v>
+        <v>0.6628767441149254</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6697095172833427</v>
+        <v>0.6948768722626462</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4947387590102995</v>
+        <v>0.575291533233591</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.926829268292683</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.4558544553360928</v>
+        <v>1.8567608827228552</v>
       </c>
     </row>
     <row r="31">
@@ -4690,22 +4690,22 @@
         <v>41.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6096731937562808</v>
+        <v>0.7751046972218164</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5001293825116853</v>
+        <v>0.7101108102388823</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5181230618914477</v>
+        <v>0.7458044383324458</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4457679950191114</v>
+        <v>0.6372722684467075</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.9512195121951219</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.8567608827228552</v>
+        <v>1.903783139935439</v>
       </c>
     </row>
     <row r="32">
@@ -4716,22 +4716,22 @@
         <v>41.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6720328275189718</v>
+        <v>0.25126633244184393</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.566707308423435</v>
+        <v>0.37862960791088723</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5882904183698797</v>
+        <v>0.3057633533611957</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5206962755365613</v>
+        <v>0.23170296154701783</v>
       </c>
       <c r="G32" t="n" s="89">
         <v>0.975609756097561</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.903783139935439</v>
+        <v>0.15617376188860607</v>
       </c>
     </row>
     <row r="33">
@@ -4742,16 +4742,16 @@
         <v>41.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.3068248375074216</v>
+        <v>0.34770453238747495</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.348625641013136</v>
+        <v>0.4214708668728988</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3001776404717429</v>
+        <v>0.37930620627407424</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.18577544054524503</v>
+        <v>0.21088332580435748</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>3.268292682926829</v>
@@ -4768,16 +4768,16 @@
         <v>41.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.06806273892747011</v>
+        <v>0.12966559109849085</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.10402236602176161</v>
+        <v>0.2126283216750842</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.03325507944462349</v>
+        <v>0.14794424880815624</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>-0.07930350660094508</v>
+        <v>-0.03962899628237888</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>3.682926829268293</v>
@@ -4794,16 +4794,16 @@
         <v>41.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6267384929173518</v>
+        <v>0.6510631567235922</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5992866921163215</v>
+        <v>0.5870260689824945</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.5480199667256945</v>
+        <v>0.5376737996484423</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.49406388695000714</v>
+        <v>0.5017216635858341</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>1.975609756097561</v>
@@ -4820,16 +4820,16 @@
         <v>41.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.36632689858917195</v>
+        <v>0.34405986420560014</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.3903784279548522</v>
+        <v>0.35711721512000316</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3001700446102381</v>
+        <v>0.25869352444496346</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.2702839251849105</v>
+        <v>0.2316421070964266</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>3.024390243902439</v>
@@ -4846,16 +4846,16 @@
         <v>41.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.7159426910623032</v>
+        <v>0.6801884030055517</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.7316463734856734</v>
+        <v>0.6996533953087238</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.7256850271565742</v>
+        <v>0.696116819745302</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.6319518069429814</v>
+        <v>0.5726838524667593</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>2.5365853658536586</v>
@@ -4872,16 +4872,16 @@
         <v>41.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6756683312353141</v>
+        <v>0.6837930019797074</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6591763118914855</v>
+        <v>0.6730154166204626</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6465026466991551</v>
+        <v>0.6658145014345942</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5770146014821793</v>
+        <v>0.5700860097862522</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>2.2439024390243905</v>
@@ -4986,22 +4986,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.04878048780487805</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.07317073170731707</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.024390243902439025</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.2682926829268293</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.34146341463414637</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.24390243902439024</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5012,22 +5012,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n" s="112">
         <v>0.04878048780487805</v>
       </c>
-      <c r="C46" t="n" s="110">
-        <v>0.024390243902439025</v>
-      </c>
-      <c r="D46" t="n" s="111">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="E46" t="n" s="112">
-        <v>0.21951219512195122</v>
-      </c>
       <c r="F46" t="n" s="113">
-        <v>0.07317073170731707</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5609756097560976</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5050,10 +5050,10 @@
         <v>0.04878048780487805</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.04878048780487805</v>
+        <v>0.024390243902439025</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.12195121951219512</v>
+        <v>0.14634146341463414</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5064,22 +5064,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.7804878048780488</v>
+        <v>0.024390243902439025</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.04878048780487805</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.024390243902439025</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.14634146341463414</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5317,31 +5317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8441440741603874</v>
+        <v>0.8689743045232532</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8527000983054915</v>
+        <v>0.9923232854870601</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8788018367477063</v>
+        <v>0.9885622418440368</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5913726837582624</v>
+        <v>0.9773181013817869</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.78887079011052</v>
+        <v>129.26406001087838</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.036756011558431036</v>
+        <v>0.003607899226340981</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.8536585365853657</v>
+        <v>0.7154471544715447</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9905421649217184</v>
+        <v>1.3835561579771247</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5903288578154753</v>
+        <v>0.9780035684174591</v>
       </c>
     </row>
     <row r="7">
@@ -5388,118 +5388,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8297837122048113</v>
+        <v>0.9875163683980794</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.829409536607904</v>
+        <v>0.9876726971111915</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.8321666590517629</v>
+        <v>0.9756456180651634</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6184173365756216</v>
+        <v>0.9756456180651636</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.861992400486864</v>
+        <v>80.12074547205847</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.04155275855432771</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.038973687669314507</v>
-      </c>
+        <v>0.0038741267659937427</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6455923980210392</v>
+        <v>0.9756456180651635</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8249056172062692</v>
+        <v>0.5823475887170155</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8289075576254035</v>
+        <v>0.9890336014684662</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.794721726263232</v>
+        <v>0.9783051176627376</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6175807573487145</v>
+        <v>0.9783051176627375</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.844793528696968</v>
+        <v>90.1876398732461</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.041086089639575565</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.025373482259894952</v>
-      </c>
+        <v>0.012446544928518028</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5395763323670307</v>
+        <v>0.9783051176627376</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.789403581471067</v>
+        <v>0.5916093861104528</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8179751767460005</v>
+        <v>0.9888794783114878</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7587473234177505</v>
+        <v>0.9780035684174592</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5996667194922393</v>
+        <v>0.9780035684174591</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.493756192827549</v>
+        <v>88.92383882790536</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.05306121318210252</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.0057263388584085535</v>
-      </c>
+        <v>0.012593029345223047</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6410813832639198</v>
+        <v>0.9780035684174591</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7422575731934338</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7717215752126758</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.711580215308256</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.529825921616474</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.3806154739838044</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.06928492891425937</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.013557634705496239</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5395763323670307</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5508,283 +5478,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>41.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9871802002294224</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9929723252458595</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9880866946344287</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9841658272257412</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.21951219512195122</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4190581774617469</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>41.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7613119009759142</v>
+        <v>0.9935794631107159</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8084279559110381</v>
+        <v>0.9920790458965725</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7120986438069365</v>
+        <v>0.9859032076304758</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6346620728770886</v>
+        <v>0.9792172172475742</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.682926829268293</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.9066152544007823</v>
+        <v>1.8567608827228552</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>41.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.7720492104005819</v>
+        <v>0.9938858148939818</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8091813736933806</v>
+        <v>0.992180331008195</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.743428060640093</v>
+        <v>0.9861664053162564</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.636483748536768</v>
+        <v>0.9793770515883683</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.2926829268292686</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.9809154509697661</v>
+        <v>1.903783139935439</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>41.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8627847248237811</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8253146390680492</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7914967795758294</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7162699139287468</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.5121951219512195</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.362386714914532</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.21951219512195122</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>41.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.9198654616020968</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8882128050279376</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8757317345719321</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.8153752574962677</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.926829268292683</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.4558544553360928</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.0</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="C27" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="226">
         <v>0.04878048780487805</v>
       </c>
-      <c r="D27" t="n" s="226">
-        <v>0.0</v>
-      </c>
       <c r="E27" t="n" s="227">
-        <v>0.3170731707317073</v>
+        <v>0.024390243902439025</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4878048780487805</v>
+        <v>0.14634146341463414</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.14634146341463414</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.21951219512195122</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.6097560975609756</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.024390243902439025</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.2682926829268293</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.34146341463414637</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.24390243902439024</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.024390243902439025</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.21951219512195122</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5609756097560976</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5814,7 +5715,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
+      <c r="A1" t="s" s="231">
         <v>45</v>
       </c>
     </row>
@@ -5829,66 +5730,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.7012622720897617</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.7063846379788434</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.5460546146229908</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.5460546146229908</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>2.4058163480150077</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.09183573787737098</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>3.475609756097561</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.0425402840669702</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.5460546146229908</v>
+      <c r="A6" t="n" s="260">
+        <v>0.5949612403100775</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.7465668691385201</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.6650870322618272</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.49544335028437825</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>2.9458140165051043</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.06590031530493384</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>2.6422764227642275</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>0.7241479433806597</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.4773552349189946</v>
       </c>
     </row>
     <row r="7">
@@ -5902,86 +5803,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n" s="287">
+        <v>0.7012622720897617</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.7063846379788434</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.5460546146229908</v>
+      </c>
+      <c r="E11" t="n" s="290">
+        <v>0.5460546146229908</v>
+      </c>
+      <c r="F11" t="n" s="291">
+        <v>2.4058163480150077</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.09183573787737098</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
+        <v>0.5460546146229908</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
-        <v>0.5460546146229908</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.5460546146229908</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.29817564215106296</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.5460546146229908</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.5460546146229908</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.5460546146229908</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="B12" t="n" s="287">
+        <v>0.2011992005329779</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.6328714319431159</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.4629202013111491</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.4629202013111491</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>1.7238414196223937</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.053774596674981606</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.46292020131114914</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.29817564215106296</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.5460546146229908</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.29817564215106296</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.5460546146229908</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="287">
+        <v>0.23529411764705865</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.6462294560389448</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.47735523491899456</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.4773552349189947</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>1.8266909641580695</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.05915213678720297</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.4773552349189946</v>
       </c>
     </row>
     <row r="14">
@@ -5990,174 +5921,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="298">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="F17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n" s="313">
+        <v>41.0</v>
+      </c>
+      <c r="C18" t="n" s="314">
+        <v>0.5840941881852915</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.7939250142118419</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.6153473831320765</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.533666693969611</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.975609756097561</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.15617376188860607</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B19" t="n" s="313">
         <v>41.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8591678031107076</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.8792197150379963</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.6497038774603603</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.5460546146229908</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C19" t="n" s="314">
+        <v>0.8589333486726015</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.8279420867561073</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.6952958606783836</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.5691118559492986</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>3.268292682926829</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.0960016022776253</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
+      <c r="B20" t="n" s="313">
         <v>41.0</v>
       </c>
-      <c r="C18" t="n" s="315">
-        <v>0.897823924912633</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.8792197150379963</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.6497038774603602</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.5460546146229908</v>
-      </c>
-      <c r="G18" t="n" s="319">
+      <c r="C20" t="n" s="314">
+        <v>0.8949972292756583</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.8220355365579953</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.6824294547513474</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.5691417659709994</v>
+      </c>
+      <c r="G20" t="n" s="318">
         <v>3.682926829268293</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="319">
         <v>1.273558486883188</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
+    <row r="23">
+      <c r="A23" t="s" s="323">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+      <c r="C24" t="s" s="337">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="D24" t="s" s="337">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="E24" t="s" s="337">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="F24" t="s" s="337">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="G24" t="s" s="337">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="H24" t="s" s="337">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.024390243902439025</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.975609756097561</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.024390243902439025</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.07317073170731707</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.04878048780487805</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.3902439024390244</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.3902439024390244</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="343">
         <v>0.07317073170731707</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+      <c r="H26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
+      <c r="B27" t="n" s="338">
         <v>0.024390243902439025</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.04878048780487805</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.12195121951219512</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.0975609756097561</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.43902439024390244</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.2682926829268293</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6187,7 +6175,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
+      <c r="A1" t="s" s="346">
         <v>46</v>
       </c>
     </row>
@@ -6202,66 +6190,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.891897272546287</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.8926257849139059</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.8060742003501569</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.8060742003501569</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>8.31322291108891</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.03362418774532338</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>2.3902439024390243</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.237498460210917</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.8060742003501569</v>
+      <c r="A6" t="n" s="375">
+        <v>0.7798165137614679</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.7812913970041919</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.6410813832639197</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.6410813832639197</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>3.5722938480804363</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.06841364945321922</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>3.9878048780487805</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.8550424322661476</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.6410813832639198</v>
       </c>
     </row>
     <row r="7">
@@ -6275,81 +6263,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.8060742003501569</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.8060742003501569</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.6497556164701449</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.8060742003501569</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8060742003501569</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.8060742003501569</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.6410813832639197</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.6410813832639197</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.4109853399675808</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.6410813832639197</v>
+      </c>
+      <c r="F11" s="406"/>
+      <c r="G11" s="407"/>
+      <c r="H11" t="n" s="408">
+        <v>0.6410813832639197</v>
+      </c>
+      <c r="I11" t="n" s="409">
+        <v>0.6410813832639197</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.6497556164701449</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.8060742003501569</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6497556164701449</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.8060742003501569</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.4109853399675808</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.6410813832639197</v>
+      </c>
+      <c r="D12" s="404"/>
+      <c r="E12" s="405"/>
+      <c r="F12" s="406"/>
+      <c r="G12" s="407"/>
+      <c r="H12" t="n" s="408">
+        <v>0.4109853399675808</v>
+      </c>
+      <c r="I12" t="n" s="409">
+        <v>0.6410813832639197</v>
       </c>
     </row>
     <row r="13">
@@ -6363,84 +6351,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
+      <c r="A15" t="s" s="413">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="B16" t="s" s="427">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+      <c r="C16" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="D16" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="E16" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="F16" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="G16" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H16" t="s" s="427">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+      <c r="A17" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n" s="428">
         <v>41.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.947474979733567</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.95028264225707</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8531792944101204</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8060742003501566</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.5365853658536586</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.266837814710505</v>
+      <c r="C17" t="n" s="429">
+        <v>0.8978863683431156</v>
+      </c>
+      <c r="D17" t="n" s="430">
+        <v>0.9058370116262418</v>
+      </c>
+      <c r="E17" t="n" s="431">
+        <v>0.7252815740219452</v>
+      </c>
+      <c r="F17" t="n" s="432">
+        <v>0.64108138326392</v>
+      </c>
+      <c r="G17" t="n" s="433">
+        <v>3.682926829268293</v>
+      </c>
+      <c r="H17" t="n" s="434">
+        <v>0.9066152544007823</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="A18" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>41.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.953015101898437</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.95028264225707</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.8531792944101204</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.8060742003501569</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>2.2439024390243905</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.3375441638480212</v>
+      <c r="C18" t="n" s="429">
+        <v>0.9134807545217526</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.9058370116262416</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.725281574021945</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.6410813832639198</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>4.2926829268292686</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.9809154509697661</v>
       </c>
     </row>
     <row r="19">
@@ -6454,74 +6442,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="439">
+      <c r="A21" t="s" s="438">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="453">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="453">
+      <c r="B22" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C22" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D22" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E22" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F22" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="452">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
+      <c r="A23" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B23" t="n" s="453">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="C23" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n" s="455">
+        <v>0.3170731707317073</v>
+      </c>
+      <c r="E23" t="n" s="456">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="F23" t="n" s="457">
+        <v>0.14634146341463414</v>
+      </c>
+      <c r="G23" t="n" s="458">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n" s="453">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="n" s="454">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="D24" t="n" s="455">
+        <v>0.21951219512195122</v>
+      </c>
+      <c r="E24" t="n" s="456">
         <v>0.12195121951219512</v>
       </c>
-      <c r="C23" t="n" s="455">
-        <v>0.024390243902439025</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3170731707317073</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2682926829268293</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.2682926829268293</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.17073170731707318</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.36585365853658536</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.1951219512195122</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.21951219512195122</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="F24" t="n" s="457">
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="G24" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6551,7 +6539,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
+      <c r="A1" t="s" s="460">
         <v>47</v>
       </c>
     </row>
@@ -6566,66 +6554,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="474">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="488">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="488">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="488">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="488">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="488">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="488">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="488">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="488">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="488">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9875163683980794</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9876726971111915</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9756456180651634</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9756456180651636</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>80.12074547205847</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0038741267659937427</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.9634146341463414</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.8687905310067492</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9756456180651635</v>
+      <c r="A6" t="n" s="489">
+        <v>0.5440084835630965</v>
+      </c>
+      <c r="B6" t="n" s="490">
+        <v>0.6049783101657393</v>
+      </c>
+      <c r="C6" t="n" s="491">
+        <v>0.43366946519492144</v>
+      </c>
+      <c r="D6" t="n" s="492">
+        <v>0.43366946519492133</v>
+      </c>
+      <c r="E6" t="n" s="493">
+        <v>1.5315065621322466</v>
+      </c>
+      <c r="F6" t="n" s="494">
+        <v>0.11920453771745287</v>
+      </c>
+      <c r="G6" t="n" s="495">
+        <v>2.5</v>
+      </c>
+      <c r="H6" t="n" s="496">
+        <v>1.0723805294763609</v>
+      </c>
+      <c r="I6" t="n" s="497">
+        <v>0.4336694651949214</v>
       </c>
     </row>
     <row r="7">
@@ -6639,81 +6627,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="501">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="515">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="515">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="515">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="515">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="515">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="515">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="515">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="515">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9756456180651635</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9756456180651635</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9518843720497546</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9756456180651635</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9756456180651635</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9756456180651635</v>
+      <c r="A11" t="s" s="511">
+        <v>26</v>
+      </c>
+      <c r="B11" t="n" s="516">
+        <v>0.4336694651949214</v>
+      </c>
+      <c r="C11" t="n" s="517">
+        <v>0.4336694651949214</v>
+      </c>
+      <c r="D11" t="n" s="518">
+        <v>0.18806920504244928</v>
+      </c>
+      <c r="E11" t="n" s="519">
+        <v>0.4336694651949214</v>
+      </c>
+      <c r="F11" s="520"/>
+      <c r="G11" s="521"/>
+      <c r="H11" t="n" s="522">
+        <v>0.4336694651949214</v>
+      </c>
+      <c r="I11" t="n" s="523">
+        <v>0.4336694651949214</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9518843720497546</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9756456180651635</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9518843720497546</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9756456180651635</v>
+      <c r="A12" t="s" s="511">
+        <v>27</v>
+      </c>
+      <c r="B12" t="n" s="516">
+        <v>0.18806920504244928</v>
+      </c>
+      <c r="C12" t="n" s="517">
+        <v>0.4336694651949214</v>
+      </c>
+      <c r="D12" s="518"/>
+      <c r="E12" s="519"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="521"/>
+      <c r="H12" t="n" s="522">
+        <v>0.18806920504244928</v>
+      </c>
+      <c r="I12" t="n" s="523">
+        <v>0.4336694651949214</v>
       </c>
     </row>
     <row r="13">
@@ -6727,84 +6715,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
+      <c r="A15" t="s" s="527">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
+      <c r="B16" t="s" s="541">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="542">
+      <c r="C16" t="s" s="541">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="D16" t="s" s="541">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="E16" t="s" s="541">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="F16" t="s" s="541">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="G16" t="s" s="541">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="541">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="537">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n" s="542">
         <v>41.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9937385970556885</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9938927552973619</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9817153330051737</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9756456180651635</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.9512195121951219</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.8567608827228552</v>
+      <c r="C17" t="n" s="543">
+        <v>0.9243860681688008</v>
+      </c>
+      <c r="D17" t="n" s="544">
+        <v>0.8466609313045339</v>
+      </c>
+      <c r="E17" t="n" s="545">
+        <v>0.557556575711098</v>
+      </c>
+      <c r="F17" t="n" s="546">
+        <v>0.4336694651949214</v>
+      </c>
+      <c r="G17" t="n" s="547">
+        <v>1.975609756097561</v>
+      </c>
+      <c r="H17" t="n" s="548">
+        <v>1.5888329817518387</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="537">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n" s="542">
         <v>41.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9940449979049523</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9938927552973619</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9817153330051738</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9756456180651635</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.975609756097561</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.903783139935439</v>
+      <c r="C18" t="n" s="543">
+        <v>0.7445993703189607</v>
+      </c>
+      <c r="D18" t="n" s="544">
+        <v>0.8466609313045339</v>
+      </c>
+      <c r="E18" t="n" s="545">
+        <v>0.5575565757110977</v>
+      </c>
+      <c r="F18" t="n" s="546">
+        <v>0.43366946519492144</v>
+      </c>
+      <c r="G18" t="n" s="547">
+        <v>3.024390243902439</v>
+      </c>
+      <c r="H18" t="n" s="548">
+        <v>0.9079593845004517</v>
       </c>
     </row>
     <row r="19">
@@ -6818,65 +6806,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
+      <c r="A21" t="s" s="552">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
+      <c r="B22" t="s" s="566">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="567">
+      <c r="C22" t="s" s="566">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s" s="566">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s" s="566">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="F22" t="s" s="566">
         <v>41</v>
       </c>
-      <c r="E22" t="s" s="567">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s" s="567">
+      <c r="G22" t="s" s="566">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7804878048780488</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="F23" t="n" s="572">
+      <c r="A23" t="s" s="562">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n" s="567">
+        <v>0.3170731707317073</v>
+      </c>
+      <c r="C23" t="n" s="568">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="D23" t="n" s="569">
+        <v>0.07317073170731707</v>
+      </c>
+      <c r="E23" t="n" s="570">
+        <v>0.3170731707317073</v>
+      </c>
+      <c r="F23" t="n" s="571">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="G23" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7804878048780488</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.024390243902439025</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.14634146341463414</v>
-      </c>
-      <c r="F24" t="n" s="572">
+      <c r="A24" t="s" s="562">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n" s="567">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="n" s="568">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="D24" t="n" s="569">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="E24" t="n" s="570">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="F24" t="n" s="571">
+        <v>0.3170731707317073</v>
+      </c>
+      <c r="G24" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
@@ -6956,31 +6953,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="603">
-        <v>0.5440084835630965</v>
+        <v>0.891897272546287</v>
       </c>
       <c r="B6" t="n" s="604">
-        <v>0.6049783101657393</v>
+        <v>0.8926257849139059</v>
       </c>
       <c r="C6" t="n" s="605">
-        <v>0.43366946519492144</v>
+        <v>0.8060742003501569</v>
       </c>
       <c r="D6" t="n" s="606">
-        <v>0.43366946519492133</v>
+        <v>0.8060742003501569</v>
       </c>
       <c r="E6" t="n" s="607">
-        <v>1.5315065621322466</v>
+        <v>8.31322291108891</v>
       </c>
       <c r="F6" t="n" s="608">
-        <v>0.11920453771745287</v>
+        <v>0.03362418774532338</v>
       </c>
       <c r="G6" t="n" s="609">
-        <v>2.5</v>
+        <v>2.3902439024390243</v>
       </c>
       <c r="H6" t="n" s="610">
-        <v>1.0723805294763609</v>
+        <v>1.237498460210917</v>
       </c>
       <c r="I6" t="n" s="611">
-        <v>0.4336694651949214</v>
+        <v>0.8060742003501569</v>
       </c>
     </row>
     <row r="7">
@@ -7027,48 +7024,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="625">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n" s="630">
-        <v>0.4336694651949214</v>
+        <v>0.8060742003501569</v>
       </c>
       <c r="C11" t="n" s="631">
-        <v>0.4336694651949214</v>
+        <v>0.8060742003501569</v>
       </c>
       <c r="D11" t="n" s="632">
-        <v>0.18806920504244928</v>
+        <v>0.6497556164701449</v>
       </c>
       <c r="E11" t="n" s="633">
-        <v>0.4336694651949214</v>
+        <v>0.8060742003501569</v>
       </c>
       <c r="F11" s="634"/>
       <c r="G11" s="635"/>
       <c r="H11" t="n" s="636">
-        <v>0.4336694651949214</v>
+        <v>0.8060742003501569</v>
       </c>
       <c r="I11" t="n" s="637">
-        <v>0.4336694651949214</v>
+        <v>0.8060742003501569</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="625">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n" s="630">
-        <v>0.18806920504244928</v>
+        <v>0.6497556164701449</v>
       </c>
       <c r="C12" t="n" s="631">
-        <v>0.4336694651949214</v>
+        <v>0.8060742003501569</v>
       </c>
       <c r="D12" s="632"/>
       <c r="E12" s="633"/>
       <c r="F12" s="634"/>
       <c r="G12" s="635"/>
       <c r="H12" t="n" s="636">
-        <v>0.18806920504244928</v>
+        <v>0.6497556164701449</v>
       </c>
       <c r="I12" t="n" s="637">
-        <v>0.4336694651949214</v>
+        <v>0.8060742003501569</v>
       </c>
     </row>
     <row r="13">
@@ -7112,54 +7109,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="651">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n" s="656">
         <v>41.0</v>
       </c>
       <c r="C17" t="n" s="657">
-        <v>0.9243860681688008</v>
+        <v>0.947474979733567</v>
       </c>
       <c r="D17" t="n" s="658">
-        <v>0.8466609313045339</v>
+        <v>0.95028264225707</v>
       </c>
       <c r="E17" t="n" s="659">
-        <v>0.557556575711098</v>
+        <v>0.8531792944101204</v>
       </c>
       <c r="F17" t="n" s="660">
-        <v>0.4336694651949214</v>
+        <v>0.8060742003501566</v>
       </c>
       <c r="G17" t="n" s="661">
-        <v>1.975609756097561</v>
+        <v>2.5365853658536586</v>
       </c>
       <c r="H17" t="n" s="662">
-        <v>1.5888329817518387</v>
+        <v>1.266837814710505</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="651">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n" s="656">
         <v>41.0</v>
       </c>
       <c r="C18" t="n" s="657">
-        <v>0.7445993703189607</v>
+        <v>0.953015101898437</v>
       </c>
       <c r="D18" t="n" s="658">
-        <v>0.8466609313045339</v>
+        <v>0.95028264225707</v>
       </c>
       <c r="E18" t="n" s="659">
-        <v>0.5575565757110977</v>
+        <v>0.8531792944101204</v>
       </c>
       <c r="F18" t="n" s="660">
-        <v>0.43366946519492144</v>
+        <v>0.8060742003501569</v>
       </c>
       <c r="G18" t="n" s="661">
-        <v>3.024390243902439</v>
+        <v>2.2439024390243905</v>
       </c>
       <c r="H18" t="n" s="662">
-        <v>0.9079593845004517</v>
+        <v>1.3375441638480212</v>
       </c>
     </row>
     <row r="19">
@@ -7200,22 +7197,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="676">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n" s="681">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="C23" t="n" s="682">
+        <v>0.024390243902439025</v>
+      </c>
+      <c r="D23" t="n" s="683">
         <v>0.3170731707317073</v>
       </c>
-      <c r="C23" t="n" s="682">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="D23" t="n" s="683">
-        <v>0.07317073170731707</v>
-      </c>
       <c r="E23" t="n" s="684">
-        <v>0.3170731707317073</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="F23" t="n" s="685">
-        <v>0.1951219512195122</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="G23" t="n" s="686">
         <v>0.0</v>
@@ -7223,22 +7220,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="676">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n" s="681">
-        <v>0.0</v>
+        <v>0.17073170731707318</v>
       </c>
       <c r="C24" t="n" s="682">
-        <v>0.0975609756097561</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="D24" t="n" s="683">
-        <v>0.0975609756097561</v>
+        <v>0.36585365853658536</v>
       </c>
       <c r="E24" t="n" s="684">
-        <v>0.4878048780487805</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="F24" t="n" s="685">
-        <v>0.3170731707317073</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="G24" t="n" s="686">
         <v>0.0</v>
@@ -7320,31 +7317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="717">
-        <v>0.80760292635516</v>
+        <v>0.7881978197472573</v>
       </c>
       <c r="B6" t="n" s="718">
-        <v>0.8143539906762598</v>
+        <v>0.8024143533598718</v>
       </c>
       <c r="C6" t="n" s="719">
-        <v>0.9173811079303735</v>
+        <v>0.9054245442442809</v>
       </c>
       <c r="D6" t="n" s="720">
-        <v>0.304908527920802</v>
+        <v>0.3109307410750335</v>
       </c>
       <c r="E6" t="n" s="721">
-        <v>4.386595723995028</v>
+        <v>4.0610963751903775</v>
       </c>
       <c r="F6" t="n" s="722">
-        <v>0.04505236562096861</v>
+        <v>0.044672454037480235</v>
       </c>
       <c r="G6" t="n" s="723">
-        <v>2.7121951219512197</v>
+        <v>2.2113821138211383</v>
       </c>
       <c r="H6" t="n" s="724">
-        <v>0.8465208567871259</v>
+        <v>0.8065338420064692</v>
       </c>
       <c r="I6" t="n" s="725">
-        <v>0.24779229563338934</v>
+        <v>0.23556603124167036</v>
       </c>
     </row>
     <row r="7">
@@ -7391,292 +7388,268 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="739">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="744">
-        <v>0.7951221372590149</v>
+        <v>0.7723988125407283</v>
       </c>
       <c r="C11" t="n" s="745">
-        <v>0.7967743104621097</v>
+        <v>0.7625908946319772</v>
       </c>
       <c r="D11" t="n" s="746">
-        <v>0.9049041203004446</v>
+        <v>0.8759167108120364</v>
       </c>
       <c r="E11" t="n" s="747">
-        <v>0.3034399560497117</v>
+        <v>0.2864875778075618</v>
       </c>
       <c r="F11" t="n" s="748">
-        <v>3.9206377514273654</v>
+        <v>3.2121383611207204</v>
       </c>
       <c r="G11" t="n" s="749">
-        <v>0.04830378422132558</v>
+        <v>0.050113821890349824</v>
       </c>
       <c r="H11" t="n" s="750">
-        <v>0.053508224887091865</v>
+        <v>0.05486447584013777</v>
       </c>
       <c r="I11" t="n" s="751">
-        <v>0.24847277657505354</v>
+        <v>0.23556603124167036</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="739">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="744">
-        <v>0.8045672134818879</v>
+        <v>0.7448691321081591</v>
       </c>
       <c r="C12" t="n" s="745">
-        <v>0.8094945490154042</v>
+        <v>0.7652898124872505</v>
       </c>
       <c r="D12" t="n" s="746">
-        <v>0.9013194737563845</v>
+        <v>0.8776436525356026</v>
       </c>
       <c r="E12" t="n" s="747">
-        <v>0.32071337693581037</v>
+        <v>0.28955660957875373</v>
       </c>
       <c r="F12" t="n" s="748">
-        <v>4.249193631109587</v>
+        <v>3.2605734782844915</v>
       </c>
       <c r="G12" t="n" s="749">
-        <v>0.04604150250071432</v>
+        <v>0.05444210503232205</v>
       </c>
       <c r="H12" t="n" s="750">
-        <v>0.04500988253803937</v>
+        <v>0.054538991466217865</v>
       </c>
       <c r="I12" t="n" s="751">
-        <v>0.24847277657505354</v>
+        <v>0.23556603124167036</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="739">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="744">
-        <v>0.7853892663466933</v>
+        <v>0.7298316889146836</v>
       </c>
       <c r="C13" t="n" s="745">
-        <v>0.7883768637313409</v>
+        <v>0.755398932982882</v>
       </c>
       <c r="D13" t="n" s="746">
-        <v>0.8924184958654984</v>
+        <v>0.8726292825070067</v>
       </c>
       <c r="E13" t="n" s="747">
-        <v>0.2927520343930462</v>
+        <v>0.2785181228145598</v>
       </c>
       <c r="F13" t="n" s="748">
-        <v>3.725381249101624</v>
+        <v>3.0882896063982286</v>
       </c>
       <c r="G13" t="n" s="749">
-        <v>0.04950715311503348</v>
+        <v>0.058921842334444585</v>
       </c>
       <c r="H13" t="n" s="750">
-        <v>0.05176245626303374</v>
+        <v>0.05607812108303245</v>
       </c>
       <c r="I13" t="n" s="751">
-        <v>0.24588354777139526</v>
+        <v>0.19209248331569007</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="739">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="744">
-        <v>0.7859150925516456</v>
+        <v>0.7832930714047441</v>
       </c>
       <c r="C14" t="n" s="745">
-        <v>0.7852947042047604</v>
+        <v>0.7981190936672048</v>
       </c>
       <c r="D14" t="n" s="746">
-        <v>0.8843177621755053</v>
+        <v>0.8939559010306103</v>
       </c>
       <c r="E14" t="n" s="747">
-        <v>0.28896175373363336</v>
+        <v>0.3307352166346166</v>
       </c>
       <c r="F14" t="n" s="748">
-        <v>3.6575469705865182</v>
+        <v>3.9534154475784216</v>
       </c>
       <c r="G14" t="n" s="749">
-        <v>0.048383197709637074</v>
+        <v>0.04542950312864992</v>
       </c>
       <c r="H14" t="n" s="750">
-        <v>0.04600750172303979</v>
+        <v>0.08551897215806563</v>
       </c>
       <c r="I14" t="n" s="751">
-        <v>0.23807350546711817</v>
+        <v>0.2509282420466751</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="739">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="744">
-        <v>0.7803090950677868</v>
+        <v>0.7997909855455206</v>
       </c>
       <c r="C15" t="n" s="745">
-        <v>0.7867297863539343</v>
+        <v>0.8189016212858214</v>
       </c>
       <c r="D15" t="n" s="746">
-        <v>0.8933277082426808</v>
+        <v>0.8990705956616376</v>
       </c>
       <c r="E15" t="n" s="747">
-        <v>0.2907179507006102</v>
+        <v>0.3611173081123703</v>
       </c>
       <c r="F15" t="n" s="748">
-        <v>3.688887317661519</v>
+        <v>4.521860588151737</v>
       </c>
       <c r="G15" t="n" s="749">
-        <v>0.051332936751814794</v>
+        <v>0.041964131318491776</v>
       </c>
       <c r="H15" t="n" s="750">
-        <v>0.05183861133397924</v>
+        <v>0.0694523459587761</v>
       </c>
       <c r="I15" t="n" s="751">
-        <v>0.23025478386628956</v>
+        <v>0.26066965161508715</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="739">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n" s="744">
-        <v>0.7836142322097379</v>
+        <v>0.7481985643000169</v>
       </c>
       <c r="C16" t="n" s="745">
-        <v>0.794620187180741</v>
+        <v>0.7674339041318518</v>
       </c>
       <c r="D16" t="n" s="746">
-        <v>0.8972866095848633</v>
+        <v>0.8955251558860432</v>
       </c>
       <c r="E16" t="n" s="747">
-        <v>0.3006464667135453</v>
+        <v>0.2920261815657101</v>
       </c>
       <c r="F16" t="n" s="748">
-        <v>3.8690277115016825</v>
+        <v>3.299852892430816</v>
       </c>
       <c r="G16" t="n" s="749">
-        <v>0.05121968413360746</v>
+        <v>0.05289027664816768</v>
       </c>
       <c r="H16" t="n" s="750">
-        <v>0.05115851319410763</v>
+        <v>0.08951768544627772</v>
       </c>
       <c r="I16" t="n" s="751">
-        <v>0.23807350546711817</v>
+        <v>0.1857127610570965</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="739">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="744">
-        <v>0.7960011278444901</v>
+        <v>0.7880855312421997</v>
       </c>
       <c r="C17" t="n" s="745">
-        <v>0.8079292757424991</v>
+        <v>0.8091249297490689</v>
       </c>
       <c r="D17" t="n" s="746">
-        <v>0.8825424300210934</v>
+        <v>0.9152138824137279</v>
       </c>
       <c r="E17" t="n" s="747">
-        <v>0.31851303744395826</v>
+        <v>0.34635336697631475</v>
       </c>
       <c r="F17" t="n" s="748">
-        <v>4.206415521500001</v>
+        <v>4.239028851098076</v>
       </c>
       <c r="G17" t="n" s="749">
-        <v>0.04728052851352729</v>
+        <v>0.04562545672856604</v>
       </c>
       <c r="H17" t="n" s="750">
-        <v>0.0411205437629869</v>
+        <v>0.0850401160793556</v>
       </c>
       <c r="I17" t="n" s="751">
-        <v>0.2509282420466751</v>
+        <v>0.2624446361450445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="739">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="744">
-        <v>0.7843695018057227</v>
+        <v>0.7617188781367885</v>
       </c>
       <c r="C18" t="n" s="745">
-        <v>0.7989461477698862</v>
+        <v>0.7796086706596148</v>
       </c>
       <c r="D18" t="n" s="746">
-        <v>0.878057100535649</v>
+        <v>0.8761655627879953</v>
       </c>
       <c r="E18" t="n" s="747">
-        <v>0.30629378487070685</v>
+        <v>0.30660188758213247</v>
       </c>
       <c r="F18" t="n" s="748">
-        <v>3.973791792138661</v>
+        <v>3.5373835848847857</v>
       </c>
       <c r="G18" t="n" s="749">
-        <v>0.05032299597504427</v>
+        <v>0.04807625631696763</v>
       </c>
       <c r="H18" t="n" s="750">
-        <v>0.04447194457000091</v>
+        <v>0.08183982877014592</v>
       </c>
       <c r="I18" t="n" s="751">
-        <v>0.2509282420466751</v>
+        <v>0.20746762320910248</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="739">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="744">
-        <v>0.7811147186147186</v>
+        <v>0.7584634980223905</v>
       </c>
       <c r="C19" t="n" s="745">
-        <v>0.7903165833633113</v>
+        <v>0.7799143222281705</v>
       </c>
       <c r="D19" t="n" s="746">
-        <v>0.9107935838916136</v>
+        <v>0.8773299537794509</v>
       </c>
       <c r="E19" t="n" s="747">
-        <v>0.2951731935605692</v>
+        <v>0.30698039860328236</v>
       </c>
       <c r="F19" t="n" s="748">
-        <v>3.7690943615854287</v>
+        <v>3.543685032684114</v>
       </c>
       <c r="G19" t="n" s="749">
-        <v>0.0521248053957213</v>
+        <v>0.050119018341181876</v>
       </c>
       <c r="H19" t="n" s="750">
-        <v>0.05835458068131315</v>
+        <v>0.08011909584205014</v>
       </c>
       <c r="I19" t="n" s="751">
-        <v>0.23025478386628956</v>
+        <v>0.21178212268052715</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="739">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="744">
-        <v>0.8058341329298447</v>
-      </c>
-      <c r="C20" t="n" s="745">
-        <v>0.817201603277621</v>
-      </c>
-      <c r="D20" t="n" s="746">
-        <v>0.92377630753724</v>
-      </c>
-      <c r="E20" t="n" s="747">
-        <v>0.33187372480642846</v>
-      </c>
-      <c r="F20" t="n" s="748">
-        <v>4.470507498589983</v>
-      </c>
-      <c r="G20" t="n" s="749">
-        <v>0.04683910423573692</v>
-      </c>
-      <c r="H20" t="n" s="750">
-        <v>0.05575237342773224</v>
-      </c>
-      <c r="I20" t="n" s="751">
-        <v>0.2724493310348536</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7685,356 +7658,377 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>1</v>
+      <c r="A22" t="s" s="755">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="755">
-        <v>30</v>
+      <c r="A23"/>
+      <c r="B23" t="s" s="769">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="769">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="769">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="769">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="769">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="769">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="769">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="769">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="769">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="769">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="769">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="769">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="769">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="769">
-        <v>10</v>
+      <c r="A24" t="s" s="765">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="770">
+        <v>41.0</v>
+      </c>
+      <c r="C24" t="n" s="771">
+        <v>0.7797696523027343</v>
+      </c>
+      <c r="D24" t="n" s="772">
+        <v>0.744653366445743</v>
+      </c>
+      <c r="E24" t="n" s="773">
+        <v>0.7770902088165762</v>
+      </c>
+      <c r="F24" t="n" s="774">
+        <v>0.7555338493257937</v>
+      </c>
+      <c r="G24" t="n" s="775">
+        <v>0.21951219512195122</v>
+      </c>
+      <c r="H24" t="n" s="776">
+        <v>0.4190581774617469</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="765">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C25" t="n" s="771">
-        <v>0.5556753030413906</v>
+        <v>0.7694187778294225</v>
       </c>
       <c r="D25" t="n" s="772">
-        <v>0.6205368999438822</v>
+        <v>0.7293148124470966</v>
       </c>
       <c r="E25" t="n" s="773">
-        <v>0.577314618479061</v>
+        <v>0.7603950642720992</v>
       </c>
       <c r="F25" t="n" s="774">
-        <v>0.47483797862936855</v>
+        <v>0.6266486991807543</v>
       </c>
       <c r="G25" t="n" s="775">
-        <v>3.682926829268293</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="H25" t="n" s="776">
-        <v>0.9066152544007823</v>
+        <v>1.8567608827228552</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="765">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C26" t="n" s="771">
-        <v>0.43817031475152024</v>
+        <v>0.8211451729805065</v>
       </c>
       <c r="D26" t="n" s="772">
-        <v>0.5189114024014606</v>
+        <v>0.7844834903621415</v>
       </c>
       <c r="E26" t="n" s="773">
-        <v>0.48442773049970966</v>
+        <v>0.8194331297569363</v>
       </c>
       <c r="F26" t="n" s="774">
-        <v>0.3375076110782237</v>
+        <v>0.6996526049376467</v>
       </c>
       <c r="G26" t="n" s="775">
-        <v>4.2926829268292686</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="H26" t="n" s="776">
-        <v>0.9809154509697661</v>
+        <v>1.903783139935439</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="765">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C27" t="n" s="771">
-        <v>0.6425949690808337</v>
+        <v>0.4548425205160831</v>
       </c>
       <c r="D27" t="n" s="772">
-        <v>0.6834176323254558</v>
+        <v>0.5235103975680456</v>
       </c>
       <c r="E27" t="n" s="773">
-        <v>0.6686148468550345</v>
+        <v>0.4546736612342865</v>
       </c>
       <c r="F27" t="n" s="774">
-        <v>0.5322033892797642</v>
+        <v>0.34740915169705083</v>
       </c>
       <c r="G27" t="n" s="775">
-        <v>3.5121951219512195</v>
+        <v>3.682926829268293</v>
       </c>
       <c r="H27" t="n" s="776">
-        <v>1.362386714914532</v>
+        <v>0.9066152544007823</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="765">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C28" t="n" s="771">
-        <v>0.6437905297566089</v>
+        <v>0.3025541466430551</v>
       </c>
       <c r="D28" t="n" s="772">
-        <v>0.7057171617804606</v>
+        <v>0.37166532541933495</v>
       </c>
       <c r="E28" t="n" s="773">
-        <v>0.7039515677826385</v>
+        <v>0.29740769310309706</v>
       </c>
       <c r="F28" t="n" s="774">
-        <v>0.5248364554526581</v>
+        <v>0.17300338138763657</v>
       </c>
       <c r="G28" t="n" s="775">
-        <v>3.926829268292683</v>
+        <v>4.2926829268292686</v>
       </c>
       <c r="H28" t="n" s="776">
-        <v>1.4558544553360928</v>
+        <v>0.9809154509697661</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="765">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C29" t="n" s="771">
-        <v>0.6814523743211511</v>
+        <v>0.7302991796018302</v>
       </c>
       <c r="D29" t="n" s="772">
-        <v>0.6953848488166083</v>
+        <v>0.7169722672733915</v>
       </c>
       <c r="E29" t="n" s="773">
-        <v>0.6791528630676381</v>
+        <v>0.6509304854959148</v>
       </c>
       <c r="F29" t="n" s="774">
-        <v>0.5878365351871677</v>
+        <v>0.5993023135330895</v>
       </c>
       <c r="G29" t="n" s="775">
-        <v>2.5365853658536586</v>
+        <v>1.975609756097561</v>
       </c>
       <c r="H29" t="n" s="776">
-        <v>1.266837814710505</v>
+        <v>1.5888329817518387</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="765">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C30" t="n" s="771">
-        <v>0.6552839931712289</v>
+        <v>0.4062450318285117</v>
       </c>
       <c r="D30" t="n" s="772">
-        <v>0.6369719619700633</v>
+        <v>0.44545325765056987</v>
       </c>
       <c r="E30" t="n" s="773">
-        <v>0.6151515002857052</v>
+        <v>0.3259665334256609</v>
       </c>
       <c r="F30" t="n" s="774">
-        <v>0.5498610213123569</v>
+        <v>0.2940886683524505</v>
       </c>
       <c r="G30" t="n" s="775">
-        <v>2.2439024390243905</v>
+        <v>3.024390243902439</v>
       </c>
       <c r="H30" t="n" s="776">
-        <v>1.3375441638480212</v>
+        <v>0.9079593845004517</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="765">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C31" t="n" s="771">
-        <v>0.6350159879554451</v>
+        <v>0.6420001171976102</v>
       </c>
       <c r="D31" t="n" s="772">
-        <v>0.5318567591490442</v>
+        <v>0.6441251055398867</v>
       </c>
       <c r="E31" t="n" s="773">
-        <v>0.5486896816123807</v>
+        <v>0.6234947711291272</v>
       </c>
       <c r="F31" t="n" s="774">
-        <v>0.4738477235483531</v>
+        <v>0.5205855432648152</v>
       </c>
       <c r="G31" t="n" s="775">
-        <v>0.9512195121951219</v>
+        <v>2.5365853658536586</v>
       </c>
       <c r="H31" t="n" s="776">
-        <v>1.8567608827228552</v>
+        <v>1.266837814710505</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="765">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B32" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C32" t="n" s="771">
-        <v>0.701359142721673</v>
+        <v>0.6642711960909452</v>
       </c>
       <c r="D32" t="n" s="772">
-        <v>0.6037468399003653</v>
+        <v>0.6422333650269706</v>
       </c>
       <c r="E32" t="n" s="773">
-        <v>0.6240282738274467</v>
+        <v>0.6215157174179056</v>
       </c>
       <c r="F32" t="n" s="774">
-        <v>0.5557161764107177</v>
+        <v>0.5403399656181714</v>
       </c>
       <c r="G32" t="n" s="775">
-        <v>0.975609756097561</v>
+        <v>2.2439024390243905</v>
       </c>
       <c r="H32" t="n" s="776">
-        <v>1.903783139935439</v>
+        <v>1.3375441638480212</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="765">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="770">
-        <v>41.0</v>
-      </c>
-      <c r="C33" t="n" s="771">
-        <v>0.6842515890148857</v>
-      </c>
-      <c r="D33" t="n" s="772">
-        <v>0.6691731172029804</v>
-      </c>
-      <c r="E33" t="n" s="773">
-        <v>0.6079914658173998</v>
-      </c>
-      <c r="F33" t="n" s="774">
-        <v>0.5628327163842248</v>
-      </c>
-      <c r="G33" t="n" s="775">
-        <v>1.975609756097561</v>
-      </c>
-      <c r="H33" t="n" s="776">
-        <v>1.5888329817518387</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="765">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="770">
-        <v>41.0</v>
-      </c>
-      <c r="C34" t="n" s="771">
-        <v>0.41594118527348056</v>
-      </c>
-      <c r="D34" t="n" s="772">
-        <v>0.4532512235303006</v>
-      </c>
-      <c r="E34" t="n" s="773">
-        <v>0.3514257114946181</v>
-      </c>
-      <c r="F34" t="n" s="774">
-        <v>0.3214269473009217</v>
-      </c>
-      <c r="G34" t="n" s="775">
-        <v>3.024390243902439</v>
-      </c>
-      <c r="H34" t="n" s="776">
-        <v>0.9079593845004517</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
+      <c r="A35" t="s" s="780">
+        <v>36</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
+      <c r="A36"/>
+      <c r="B36" t="s" s="794">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="794">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="794">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="794">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="794">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="794">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="794">
+        <v>43</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="780">
-        <v>36</v>
+      <c r="A37" t="s" s="790">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="795">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="C37" t="n" s="796">
+        <v>0.21951219512195122</v>
+      </c>
+      <c r="D37" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="801">
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="794">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="794">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="794">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="794">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="794">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="794">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="794">
-        <v>43</v>
+      <c r="A38" t="s" s="790">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="795">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="C38" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="798">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="F38" t="n" s="799">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="G38" t="n" s="800">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="H38" t="n" s="801">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="790">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B39" t="n" s="795">
-        <v>0.0</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="C39" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="798">
         <v>0.04878048780487805</v>
       </c>
-      <c r="D39" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="798">
-        <v>0.3170731707317073</v>
-      </c>
       <c r="F39" t="n" s="799">
-        <v>0.4878048780487805</v>
+        <v>0.024390243902439025</v>
       </c>
       <c r="G39" t="n" s="800">
         <v>0.14634146341463414</v>
@@ -8045,25 +8039,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="790">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n" s="795">
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="796">
-        <v>0.0</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="D40" t="n" s="797">
-        <v>0.04878048780487805</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="798">
-        <v>0.21951219512195122</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="F40" t="n" s="799">
-        <v>0.12195121951219512</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="G40" t="n" s="800">
-        <v>0.6097560975609756</v>
+        <v>0.14634146341463414</v>
       </c>
       <c r="H40" t="n" s="801">
         <v>0.0</v>
@@ -8071,25 +8065,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="790">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="n" s="795">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="797">
         <v>0.04878048780487805</v>
       </c>
-      <c r="C41" t="n" s="796">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="D41" t="n" s="797">
-        <v>0.024390243902439025</v>
-      </c>
       <c r="E41" t="n" s="798">
-        <v>0.2682926829268293</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="F41" t="n" s="799">
-        <v>0.34146341463414637</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="G41" t="n" s="800">
-        <v>0.24390243902439024</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="H41" t="n" s="801">
         <v>0.0</v>
@@ -8097,25 +8091,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="790">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B42" t="n" s="795">
-        <v>0.04878048780487805</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="C42" t="n" s="796">
-        <v>0.024390243902439025</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="D42" t="n" s="797">
         <v>0.07317073170731707</v>
       </c>
       <c r="E42" t="n" s="798">
-        <v>0.21951219512195122</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="F42" t="n" s="799">
-        <v>0.07317073170731707</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="G42" t="n" s="800">
-        <v>0.5609756097560976</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="801">
         <v>0.0</v>
@@ -8123,22 +8117,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="790">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="n" s="795">
-        <v>0.12195121951219512</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n" s="796">
-        <v>0.024390243902439025</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="D43" t="n" s="797">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="E43" t="n" s="798">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="F43" t="n" s="799">
         <v>0.3170731707317073</v>
-      </c>
-      <c r="E43" t="n" s="798">
-        <v>0.2682926829268293</v>
-      </c>
-      <c r="F43" t="n" s="799">
-        <v>0.2682926829268293</v>
       </c>
       <c r="G43" t="n" s="800">
         <v>0.0</v>
@@ -8149,22 +8143,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="790">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n" s="795">
-        <v>0.17073170731707318</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="C44" t="n" s="796">
-        <v>0.04878048780487805</v>
+        <v>0.024390243902439025</v>
       </c>
       <c r="D44" t="n" s="797">
-        <v>0.36585365853658536</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="E44" t="n" s="798">
-        <v>0.1951219512195122</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="F44" t="n" s="799">
-        <v>0.21951219512195122</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="G44" t="n" s="800">
         <v>0.0</v>
@@ -8175,105 +8169,27 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="790">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B45" t="n" s="795">
-        <v>0.7804878048780488</v>
+        <v>0.17073170731707318</v>
       </c>
       <c r="C45" t="n" s="796">
-        <v>0.0</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="D45" t="n" s="797">
-        <v>0.0</v>
+        <v>0.36585365853658536</v>
       </c>
       <c r="E45" t="n" s="798">
-        <v>0.04878048780487805</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="F45" t="n" s="799">
-        <v>0.04878048780487805</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="G45" t="n" s="800">
-        <v>0.12195121951219512</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="790">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="795">
-        <v>0.7804878048780488</v>
-      </c>
-      <c r="C46" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="798">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="F46" t="n" s="799">
-        <v>0.024390243902439025</v>
-      </c>
-      <c r="G46" t="n" s="800">
-        <v>0.14634146341463414</v>
-      </c>
-      <c r="H46" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="790">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="795">
-        <v>0.3170731707317073</v>
-      </c>
-      <c r="C47" t="n" s="796">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="D47" t="n" s="797">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="E47" t="n" s="798">
-        <v>0.3170731707317073</v>
-      </c>
-      <c r="F47" t="n" s="799">
-        <v>0.1951219512195122</v>
-      </c>
-      <c r="G47" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="790">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="795">
-        <v>0.0</v>
-      </c>
-      <c r="C48" t="n" s="796">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="D48" t="n" s="797">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="E48" t="n" s="798">
-        <v>0.4878048780487805</v>
-      </c>
-      <c r="F48" t="n" s="799">
-        <v>0.3170731707317073</v>
-      </c>
-      <c r="G48" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="801">
         <v>0.0</v>
       </c>
     </row>
